--- a/绘图计划表.xlsx
+++ b/绘图计划表.xlsx
@@ -1,43 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangw/drawgraph/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="7720" yWindow="3780" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>初步计划是完成组合图形的绘制(obj,item)</t>
+    <t>注意graph里面右边tab里面结构的创建</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li'mian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you'bian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>li'mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jie'gou</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chuang'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步计划是完成组合图形的绘制(obj,item)（尚未完成）</t>
+    <rPh sb="25" eb="26">
+      <t>shang'wei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wan'cheng</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -78,6 +122,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,12 +173,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -156,14 +205,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -190,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,24 +416,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43017</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -394,12 +450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -408,12 +464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/绘图计划表.xlsx
+++ b/绘图计划表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangw/drawgraph/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="3780" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="7725" yWindow="3780" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>注意graph里面右边tab里面结构的创建</t>
     <rPh sb="0" eb="1">
@@ -65,12 +60,24 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>遗留iconsymbol,icontemplate的writedata,readdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留graph部分的读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上部分结束后，转移到view/sceneb部分中来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -208,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -416,20 +423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>43017</v>
       </c>
@@ -437,9 +444,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>43045</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -450,12 +475,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -464,12 +489,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/绘图计划表.xlsx
+++ b/绘图计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="7725" yWindow="3780" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -24,52 +24,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>注意graph里面右边tab里面结构的创建</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'yi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>li'mian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>you'bian</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>li'mian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>jie'gou</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>de</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>chuang'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步计划是完成组合图形的绘制(obj,item)（尚未完成）</t>
-    <rPh sb="25" eb="26">
-      <t>shang'wei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wan'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗留iconsymbol,icontemplate的writedata,readdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗留graph部分的读写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上部分结束后，转移到view/sceneb部分中来</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>还有icotemplate的copyto工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本图元的绘制工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hgraph的保存和读取工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainWindow的左右资源框的大小调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销和重建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制粘贴拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种对齐功能，放大缩小功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测点保存的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联遥信遥测等测点问题（含测点关联界面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -438,21 +427,19 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>43017</v>
+        <v>43133</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>43045</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -465,6 +452,26 @@
     <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
